--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703424.4668973247</v>
+        <v>699257.9338956967</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33943812.81471046</v>
+        <v>33943812.81471045</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747057</v>
+        <v>6528279.443747056</v>
       </c>
     </row>
     <row r="9">
@@ -1217,64 +1217,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="W9" t="n">
         <v>30.58073358141467</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>16.07267624245948</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>294.5814239844241</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1423,7 +1423,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>149.0818692512484</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>124.9554984777215</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>269.4222059129122</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>145.5438650211353</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>59.05018481036</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>85.14888072091732</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>25.82179825687132</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>33.8164498804163</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>116.6395830120775</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>89.30668535812342</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>154.436886991665</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>298.9305211832445</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>11.45461388085714</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>237.4644955258592</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>104.7939331539655</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>251.5847828315371</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T24" t="n">
         <v>124.6798257545734</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.56827013293023</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>138.6962921071899</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>196.2827333883914</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
         <v>266.3081572941393</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>210.5788737066219</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T27" t="n">
         <v>124.6798257545734</v>
@@ -2715,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>4.03438150210352</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>3.140246927695046</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4377336227562</v>
+        <v>273.6246679211707</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>191.0550584451745</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T30" t="n">
         <v>124.6798257545734</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>127.0496934354221</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.7417251547865</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T31" t="n">
-        <v>200.6084188763768</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6010546203353</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.3509370497334</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>384.927685478548</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.4377336227562</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -3088,13 +3088,13 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T33" t="n">
         <v>124.6798257545734</v>
@@ -3198,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>3.140246927692838</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>145.5758518932811</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.6907226285777</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>400.9694816934884</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>139.1565673271311</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T36" t="n">
         <v>124.6798257545734</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>142.628775626412</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>134.8550812659119</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>196.5169763065605</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>275.0248186796275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T39" t="n">
         <v>124.6798257545734</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I40" t="n">
-        <v>4.113356111123989</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.6907226285777</v>
+        <v>80.74167869859713</v>
       </c>
       <c r="U40" t="n">
         <v>275.6010546203353</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>16.69230039436486</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H41" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>318.1212623127538</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T42" t="n">
         <v>124.6798257545734</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>37.51186921781136</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,7 +3915,7 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T43" t="n">
         <v>239.6907226285777</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.6193748651424</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>51.25334036804845</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>133.7684135216292</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.47982952007819</v>
+        <v>43.47982952007818</v>
       </c>
       <c r="T45" t="n">
         <v>124.6798257545734</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.0624000411058</v>
       </c>
       <c r="H46" t="n">
-        <v>50.51130547423384</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
         <v>239.6907226285777</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>102.9178094623786</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.92715643465272</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>75.92715643465272</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>34.19483012401903</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>34.19483012401903</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>34.19483012401903</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4910,25 +4910,25 @@
         <v>117.6594827452864</v>
       </c>
       <c r="S9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="T9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="U9" t="n">
         <v>75.92715643465272</v>
       </c>
       <c r="V9" t="n">
-        <v>75.92715643465272</v>
+        <v>34.19483012401903</v>
       </c>
       <c r="W9" t="n">
-        <v>75.92715643465272</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="X9" t="n">
-        <v>75.92715643465272</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>75.92715643465272</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D10" t="n">
-        <v>19.54022675133702</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="F10" t="n">
         <v>3.305200243802188</v>
@@ -4986,28 +4986,28 @@
         <v>61.2725530619707</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="T10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="U10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="V10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="W10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="X10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.2725530619707</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>716.4307943255671</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C11" t="n">
-        <v>716.4307943255671</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D11" t="n">
-        <v>716.4307943255671</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2169.273460944101</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1910.202769465615</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1547.585819399442</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1142.730364810475</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1142.730364810475</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.730364810475</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,34 +5111,34 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.3289888817353</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C13" t="n">
-        <v>685.7672773649603</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D13" t="n">
-        <v>519.889284566483</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E13" t="n">
-        <v>350.1312808172202</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F13" t="n">
-        <v>173.4242267789764</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.94094549648</v>
+        <v>1943.757396615696</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.98543736691</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W13" t="n">
-        <v>1522.959032953202</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.567278286614</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.147607600722</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>446.7092428694776</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="C14" t="n">
-        <v>446.7092428694776</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="D14" t="n">
-        <v>446.7092428694776</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>593.7232479413315</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>194.2205566208086</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895472</v>
@@ -5284,7 +5284,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2300.68092612414</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2041.610234645654</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1678.99328457948</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W14" t="n">
-        <v>1274.137829990514</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X14" t="n">
-        <v>854.9953665698242</v>
+        <v>1429.87680123247</v>
       </c>
       <c r="Y14" t="n">
-        <v>446.7092428694776</v>
+        <v>1021.590677532124</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>959.9477806029472</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C16" t="n">
-        <v>787.3860690861721</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D16" t="n">
-        <v>621.5080762876948</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1669.18455840223</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.158153988522</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.766399321934</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1151.766399321934</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>880.4839877111824</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C17" t="n">
-        <v>880.4839877111824</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D17" t="n">
-        <v>880.4839877111824</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
         <v>1775.969506973259</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2326.169547265498</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2067.098855787012</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>1704.481905720839</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1299.626451131872</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>880.4839877111824</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y17" t="n">
-        <v>880.4839877111824</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>732.1113136517137</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5496021349386</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M19" t="n">
-        <v>818.7256495113488</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1396.74135772318</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1151.349603056593</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.9299323707007</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1184.56904909225</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>882.6190276950331</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>1592.855172792596</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X20" t="n">
-        <v>1592.855172792596</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1184.56904909225</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>896.8524940391952</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C22" t="n">
-        <v>724.2907825224202</v>
+        <v>571.1199191863094</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>405.2419263878321</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>235.4839226385694</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>58.77686860032557</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M22" t="n">
-        <v>1690.512214359095</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O22" t="n">
         <v>2005.127382498297</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>2120.464450653939</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1833.50894252437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.482538110662</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X22" t="n">
-        <v>1316.090783444074</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y22" t="n">
-        <v>1088.671112758182</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1145.264004567138</v>
+        <v>1348.751029380071</v>
       </c>
       <c r="C23" t="n">
-        <v>1145.264004567138</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="D23" t="n">
-        <v>1145.264004567138</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E23" t="n">
-        <v>1145.264004567138</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F23" t="n">
-        <v>717.3965749763458</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G23" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882628</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K23" t="n">
         <v>531.4362430141192</v>
       </c>
       <c r="L23" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M23" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N23" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T23" t="n">
-        <v>2342.466648818566</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U23" t="n">
-        <v>2342.466648818566</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="V23" t="n">
-        <v>1979.849698752393</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="W23" t="n">
-        <v>1979.849698752393</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="X23" t="n">
-        <v>1979.849698752393</v>
+        <v>2029.176643129157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1571.563575052046</v>
+        <v>1775.050599864978</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I24" t="n">
-        <v>84.45847150237337</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J24" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K24" t="n">
-        <v>348.3116373029834</v>
+        <v>348.3116373029837</v>
       </c>
       <c r="L24" t="n">
-        <v>572.1378646061672</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M24" t="n">
-        <v>833.3325146678766</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N24" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O24" t="n">
-        <v>1346.706371962439</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P24" t="n">
-        <v>1543.554090058106</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q24" t="n">
         <v>1613.147991278647</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>858.0812763491953</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C25" t="n">
-        <v>858.0812763491953</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D25" t="n">
-        <v>692.203283550718</v>
+        <v>365.770700923978</v>
       </c>
       <c r="E25" t="n">
-        <v>522.4452798014552</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F25" t="n">
-        <v>345.7382257632114</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G25" t="n">
-        <v>181.0287307721954</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J25" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903013</v>
+        <v>297.055419719166</v>
       </c>
       <c r="L25" t="n">
-        <v>793.7446588834604</v>
+        <v>542.2681845220129</v>
       </c>
       <c r="M25" t="n">
-        <v>1388.700908408006</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N25" t="n">
-        <v>1963.210863452814</v>
+        <v>1711.734389091367</v>
       </c>
       <c r="O25" t="n">
-        <v>2085.366207689826</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S25" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T25" t="n">
-        <v>2206.207265510877</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.822361853973</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V25" t="n">
-        <v>1640.866853724403</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W25" t="n">
-        <v>1368.840449310695</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X25" t="n">
-        <v>1123.448694644107</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y25" t="n">
-        <v>896.0290239582157</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>317.9645208119457</v>
+        <v>1789.71421987948</v>
       </c>
       <c r="C26" t="n">
-        <v>317.9645208119457</v>
+        <v>1351.571747062903</v>
       </c>
       <c r="D26" t="n">
-        <v>317.9645208119457</v>
+        <v>915.6619622373473</v>
       </c>
       <c r="E26" t="n">
-        <v>317.9645208119457</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="F26" t="n">
-        <v>317.9645208119457</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="G26" t="n">
         <v>317.9645208119457</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I26" t="n">
-        <v>122.8353788882628</v>
+        <v>122.8353788882629</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K26" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L26" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N26" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T26" t="n">
-        <v>2448.319106549844</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U26" t="n">
-        <v>2189.254066043848</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="V26" t="n">
-        <v>1976.548133006856</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="W26" t="n">
-        <v>1571.69267841789</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="X26" t="n">
-        <v>1152.5502149972</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="Y26" t="n">
-        <v>744.2640912968535</v>
+        <v>1789.71421987948</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1315.096129917308</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>1208.63966875395</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D27" t="n">
-        <v>1113.549379900503</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>1019.428965227457</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F27" t="n">
-        <v>936.0451268436188</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G27" t="n">
-        <v>851.7118206437426</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H27" t="n">
-        <v>820.1341831166905</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I27" t="n">
-        <v>855.6262724880669</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J27" t="n">
-        <v>953.0192784942861</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K27" t="n">
-        <v>1119.479438288677</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L27" t="n">
-        <v>1343.305665591861</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M27" t="n">
-        <v>1604.50031565357</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N27" t="n">
-        <v>1872.608010893475</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O27" t="n">
-        <v>2117.874172948132</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>2314.7218910438</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2446.309377548836</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R27" t="n">
-        <v>2448.319106549844</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S27" t="n">
-        <v>2404.400086832594</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T27" t="n">
-        <v>2278.460868898681</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U27" t="n">
-        <v>2102.193518183777</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V27" t="n">
-        <v>1903.076000245776</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W27" t="n">
-        <v>1717.75324597897</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X27" t="n">
-        <v>1562.88581021785</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y27" t="n">
-        <v>1436.400030997071</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.3360567891416</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="C28" t="n">
-        <v>556.260923958734</v>
+        <v>387.7743452723684</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3829311602566</v>
+        <v>221.896352473891</v>
       </c>
       <c r="E28" t="n">
-        <v>390.3829311602566</v>
+        <v>52.13834872462829</v>
       </c>
       <c r="F28" t="n">
-        <v>213.6758771220128</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G28" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H28" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J28" t="n">
-        <v>196.6473093931424</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K28" t="n">
-        <v>297.0554197191658</v>
+        <v>297.055419719166</v>
       </c>
       <c r="L28" t="n">
-        <v>843.7531134019772</v>
+        <v>425.5432316340163</v>
       </c>
       <c r="M28" t="n">
-        <v>1137.224434046557</v>
+        <v>621.5247652118843</v>
       </c>
       <c r="N28" t="n">
-        <v>1711.734389091365</v>
+        <v>1196.034720256693</v>
       </c>
       <c r="O28" t="n">
-        <v>2253.558982554158</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P28" t="n">
-        <v>2358.083982536742</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T28" t="n">
-        <v>2062.33291706079</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.948013403886</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V28" t="n">
-        <v>1496.992505274316</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.966100860608</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X28" t="n">
-        <v>979.5743461940206</v>
+        <v>979.5743461940224</v>
       </c>
       <c r="Y28" t="n">
-        <v>752.1546755081288</v>
+        <v>752.1546755081306</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.95039555345</v>
+        <v>594.3530742676737</v>
       </c>
       <c r="C29" t="n">
-        <v>1745.95039555345</v>
+        <v>594.3530742676737</v>
       </c>
       <c r="D29" t="n">
-        <v>1310.040610727894</v>
+        <v>594.3530742676737</v>
       </c>
       <c r="E29" t="n">
-        <v>876.2658658861894</v>
+        <v>594.3530742676737</v>
       </c>
       <c r="F29" t="n">
-        <v>448.3984362953971</v>
+        <v>594.3530742676737</v>
       </c>
       <c r="G29" t="n">
-        <v>48.96638213099689</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H29" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882628</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786137</v>
+        <v>286.358089178614</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M29" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P29" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q29" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R29" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S29" t="n">
-        <v>2409.462380959786</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T29" t="n">
-        <v>2198.000343579824</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U29" t="n">
-        <v>1938.935303073828</v>
+        <v>2189.25406604385</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.95039555345</v>
+        <v>1826.637115977676</v>
       </c>
       <c r="W29" t="n">
-        <v>1745.95039555345</v>
+        <v>1421.78166138871</v>
       </c>
       <c r="X29" t="n">
-        <v>1745.95039555345</v>
+        <v>1002.63919796802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1745.95039555345</v>
+        <v>594.3530742676737</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1315.096129917308</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C30" t="n">
-        <v>1208.63966875395</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D30" t="n">
-        <v>1113.549379900503</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E30" t="n">
-        <v>1019.428965227457</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F30" t="n">
-        <v>936.0451268436188</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G30" t="n">
-        <v>851.7118206437426</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H30" t="n">
-        <v>820.1341831166905</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I30" t="n">
-        <v>820.1341831166905</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J30" t="n">
-        <v>891.0256932097899</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K30" t="n">
-        <v>1057.485853004181</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L30" t="n">
-        <v>1281.312080307365</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M30" t="n">
-        <v>1542.506730369074</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.614425608979</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O30" t="n">
-        <v>2055.880587663637</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P30" t="n">
-        <v>2252.728305759304</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R30" t="n">
-        <v>2448.319106549844</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S30" t="n">
-        <v>2404.400086832594</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T30" t="n">
-        <v>2278.460868898681</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U30" t="n">
-        <v>2102.193518183777</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V30" t="n">
-        <v>1903.076000245776</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W30" t="n">
-        <v>1717.75324597897</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X30" t="n">
-        <v>1562.88581021785</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y30" t="n">
-        <v>1436.400030997071</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1030.64298786597</v>
+        <v>865.9334928749543</v>
       </c>
       <c r="C31" t="n">
-        <v>858.0812763491953</v>
+        <v>693.3717813581792</v>
       </c>
       <c r="D31" t="n">
-        <v>692.203283550718</v>
+        <v>527.4937885597019</v>
       </c>
       <c r="E31" t="n">
-        <v>522.4452798014552</v>
+        <v>357.7357848104392</v>
       </c>
       <c r="F31" t="n">
-        <v>345.7382257632114</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="G31" t="n">
         <v>181.0287307721954</v>
       </c>
       <c r="H31" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I31" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931424</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K31" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.511567973113</v>
+        <v>700.3016862051518</v>
       </c>
       <c r="M31" t="n">
-        <v>1253.983950316745</v>
+        <v>1295.257935729697</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.235102203909</v>
+        <v>1869.767890774506</v>
       </c>
       <c r="O31" t="n">
-        <v>1737.859313719484</v>
+        <v>2085.366207689828</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R31" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S31" t="n">
-        <v>2448.319106549844</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T31" t="n">
-        <v>2245.68434000805</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="U31" t="n">
-        <v>1967.299436351145</v>
+        <v>2026.059854442855</v>
       </c>
       <c r="V31" t="n">
-        <v>1967.299436351145</v>
+        <v>1739.104346313286</v>
       </c>
       <c r="W31" t="n">
-        <v>1695.273031937437</v>
+        <v>1467.077941899577</v>
       </c>
       <c r="X31" t="n">
-        <v>1449.881277270849</v>
+        <v>1221.68618723299</v>
       </c>
       <c r="Y31" t="n">
-        <v>1222.461606584958</v>
+        <v>994.2665165470978</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>448.3984362953971</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="C32" t="n">
-        <v>448.3984362953971</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="D32" t="n">
-        <v>448.3984362953971</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="E32" t="n">
-        <v>448.3984362953971</v>
+        <v>1145.264004567138</v>
       </c>
       <c r="F32" t="n">
-        <v>448.3984362953971</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="G32" t="n">
-        <v>48.96638213099688</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882623</v>
+        <v>122.8353788882627</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786133</v>
+        <v>286.3580891786138</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L32" t="n">
-        <v>835.4773641398443</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M32" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N32" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O32" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P32" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2236.857069169883</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U32" t="n">
-        <v>1977.792028663887</v>
+        <v>1938.93530307383</v>
       </c>
       <c r="V32" t="n">
-        <v>1615.175078597713</v>
+        <v>1938.93530307383</v>
       </c>
       <c r="W32" t="n">
-        <v>1210.319624008746</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="X32" t="n">
-        <v>791.1771605880571</v>
+        <v>1534.079848484863</v>
       </c>
       <c r="Y32" t="n">
-        <v>791.1771605880571</v>
+        <v>1534.079848484863</v>
       </c>
     </row>
     <row r="33">
@@ -6758,46 +6758,46 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D33" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F33" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G33" t="n">
-        <v>80.544019658049</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H33" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I33" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J33" t="n">
-        <v>119.857892224096</v>
+        <v>146.3593881372162</v>
       </c>
       <c r="K33" t="n">
-        <v>286.3180520184868</v>
+        <v>286.3180520184856</v>
       </c>
       <c r="L33" t="n">
-        <v>510.1442793216706</v>
+        <v>510.1442793216696</v>
       </c>
       <c r="M33" t="n">
-        <v>771.33892938338</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N33" t="n">
-        <v>1039.446624623285</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O33" t="n">
         <v>1284.712786677942</v>
       </c>
       <c r="P33" t="n">
-        <v>1481.56050477361</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q33" t="n">
         <v>1613.147991278647</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.3360567891411</v>
+        <v>704.2104052392303</v>
       </c>
       <c r="C34" t="n">
-        <v>387.7743452723661</v>
+        <v>531.6486937224553</v>
       </c>
       <c r="D34" t="n">
-        <v>221.8963524738888</v>
+        <v>365.770700923978</v>
       </c>
       <c r="E34" t="n">
-        <v>52.13834872462601</v>
+        <v>196.0126971747152</v>
       </c>
       <c r="F34" t="n">
-        <v>48.96638213099688</v>
+        <v>196.0126971747152</v>
       </c>
       <c r="G34" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H34" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099688</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J34" t="n">
-        <v>196.6473093931424</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K34" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L34" t="n">
         <v>1118.511567973113</v>
@@ -6873,37 +6873,37 @@
         <v>1386.235102203909</v>
       </c>
       <c r="O34" t="n">
-        <v>1737.859313719484</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.891207672409</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572187</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2304.444758099757</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T34" t="n">
-        <v>2062.33291706079</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U34" t="n">
-        <v>1783.948013403886</v>
+        <v>1927.822361853975</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.992505274316</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W34" t="n">
-        <v>1224.966100860608</v>
+        <v>1368.840449310697</v>
       </c>
       <c r="X34" t="n">
-        <v>979.5743461940201</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y34" t="n">
-        <v>752.1546755081283</v>
+        <v>896.0290239582175</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>853.4181147736682</v>
+        <v>756.1069936285223</v>
       </c>
       <c r="C35" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="D35" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="E35" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="F35" t="n">
-        <v>448.3984362953971</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="G35" t="n">
-        <v>48.96638213099689</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882628</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J35" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K35" t="n">
         <v>531.4362430141192</v>
       </c>
       <c r="L35" t="n">
-        <v>835.4773641398448</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M35" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N35" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O35" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P35" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S35" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T35" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U35" t="n">
-        <v>2448.319106549844</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V35" t="n">
-        <v>2085.702156483671</v>
+        <v>2009.835151234466</v>
       </c>
       <c r="W35" t="n">
-        <v>1680.846701894704</v>
+        <v>2009.835151234466</v>
       </c>
       <c r="X35" t="n">
-        <v>1261.704238474015</v>
+        <v>1590.692687813777</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.4181147736682</v>
+        <v>1182.40656411343</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G36" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237337</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J36" t="n">
-        <v>181.8514775085926</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K36" t="n">
-        <v>348.3116373029834</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L36" t="n">
-        <v>572.1378646061672</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M36" t="n">
-        <v>833.3325146678766</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N36" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O36" t="n">
-        <v>1346.706371962439</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P36" t="n">
-        <v>1481.56050477361</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q36" t="n">
         <v>1613.147991278647</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>704.2104052392285</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C37" t="n">
-        <v>560.1409349095194</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1409349095194</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E37" t="n">
-        <v>390.3829311602566</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F37" t="n">
-        <v>213.6758771220128</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G37" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H37" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J37" t="n">
-        <v>196.6473093931424</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K37" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L37" t="n">
         <v>1118.511567973113</v>
       </c>
       <c r="M37" t="n">
-        <v>1483.452817595309</v>
+        <v>1253.983950316745</v>
       </c>
       <c r="N37" t="n">
-        <v>1615.703969482473</v>
+        <v>1386.235102203909</v>
       </c>
       <c r="O37" t="n">
-        <v>1737.859313719484</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T37" t="n">
-        <v>2206.207265510877</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.822361853973</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V37" t="n">
-        <v>1640.866853724403</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W37" t="n">
-        <v>1368.840449310695</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X37" t="n">
-        <v>1123.448694644107</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y37" t="n">
-        <v>896.0290239582157</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1346.51834138905</v>
+        <v>1983.162810474879</v>
       </c>
       <c r="C38" t="n">
-        <v>1346.51834138905</v>
+        <v>1545.020337658303</v>
       </c>
       <c r="D38" t="n">
-        <v>910.6085565634939</v>
+        <v>1109.110552832747</v>
       </c>
       <c r="E38" t="n">
-        <v>476.8338117217892</v>
+        <v>675.3358079910422</v>
       </c>
       <c r="F38" t="n">
-        <v>48.96638213099689</v>
+        <v>247.4683784002499</v>
       </c>
       <c r="G38" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H38" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882628</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786137</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K38" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398446</v>
+        <v>835.477364139845</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O38" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803855</v>
       </c>
       <c r="P38" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.236244874199</v>
       </c>
       <c r="Q38" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R38" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S38" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T38" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U38" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V38" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W38" t="n">
-        <v>2043.463651960878</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X38" t="n">
-        <v>1624.321188540188</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="Y38" t="n">
-        <v>1346.51834138905</v>
+        <v>2409.462380959787</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H39" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I39" t="n">
-        <v>84.45847150237337</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J39" t="n">
-        <v>119.857892224096</v>
+        <v>119.8578922240946</v>
       </c>
       <c r="K39" t="n">
-        <v>286.3180520184868</v>
+        <v>286.3180520184856</v>
       </c>
       <c r="L39" t="n">
-        <v>510.1442793216706</v>
+        <v>510.1442793216696</v>
       </c>
       <c r="M39" t="n">
-        <v>771.33892938338</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N39" t="n">
-        <v>1039.446624623285</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O39" t="n">
         <v>1284.712786677942</v>
       </c>
       <c r="P39" t="n">
-        <v>1481.56050477361</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q39" t="n">
         <v>1613.147991278647</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>704.2104052392285</v>
+        <v>864.764995067493</v>
       </c>
       <c r="C40" t="n">
-        <v>531.6486937224535</v>
+        <v>692.203283550718</v>
       </c>
       <c r="D40" t="n">
-        <v>531.6486937224535</v>
+        <v>692.203283550718</v>
       </c>
       <c r="E40" t="n">
-        <v>361.8906899731907</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F40" t="n">
-        <v>185.1836359349469</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G40" t="n">
-        <v>185.1836359349469</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H40" t="n">
-        <v>53.1212872937484</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I40" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931424</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K40" t="n">
-        <v>571.8138742903013</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L40" t="n">
-        <v>700.3016862051517</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M40" t="n">
-        <v>969.0316591822245</v>
+        <v>1483.45281759531</v>
       </c>
       <c r="N40" t="n">
-        <v>1543.541614227033</v>
+        <v>1615.703969482474</v>
       </c>
       <c r="O40" t="n">
-        <v>2085.366207689826</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.89120767241</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R40" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S40" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T40" t="n">
-        <v>2206.207265510877</v>
+        <v>2366.761855339142</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.822361853973</v>
+        <v>2088.376951682237</v>
       </c>
       <c r="V40" t="n">
-        <v>1640.866853724403</v>
+        <v>1801.421443552668</v>
       </c>
       <c r="W40" t="n">
-        <v>1368.840449310695</v>
+        <v>1529.395039138959</v>
       </c>
       <c r="X40" t="n">
-        <v>1123.448694644107</v>
+        <v>1284.003284472372</v>
       </c>
       <c r="Y40" t="n">
-        <v>896.0290239582157</v>
+        <v>1056.58361378648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1168.032229307308</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="C41" t="n">
-        <v>1168.032229307308</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="D41" t="n">
-        <v>1151.171319818051</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="E41" t="n">
-        <v>717.3965749763458</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="F41" t="n">
-        <v>717.3965749763458</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G41" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882627</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786138</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141191</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L41" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M41" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N41" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O41" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P41" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2409.462380959786</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T41" t="n">
-        <v>2198.000343579824</v>
+        <v>2236.857069169885</v>
       </c>
       <c r="U41" t="n">
-        <v>1938.935303073828</v>
+        <v>1977.792028663889</v>
       </c>
       <c r="V41" t="n">
-        <v>1576.318353007655</v>
+        <v>1615.175078597715</v>
       </c>
       <c r="W41" t="n">
-        <v>1576.318353007655</v>
+        <v>1615.175078597715</v>
       </c>
       <c r="X41" t="n">
-        <v>1576.318353007655</v>
+        <v>1196.032615177026</v>
       </c>
       <c r="Y41" t="n">
-        <v>1168.032229307308</v>
+        <v>874.6980067803049</v>
       </c>
     </row>
     <row r="42">
@@ -7469,49 +7469,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D42" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E42" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F42" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G42" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237337</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J42" t="n">
-        <v>181.8514775085926</v>
+        <v>119.8578922240946</v>
       </c>
       <c r="K42" t="n">
-        <v>348.3116373029834</v>
+        <v>286.3180520184856</v>
       </c>
       <c r="L42" t="n">
-        <v>572.1378646061672</v>
+        <v>510.1442793216696</v>
       </c>
       <c r="M42" t="n">
-        <v>833.3325146678766</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O42" t="n">
-        <v>1346.706371962439</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P42" t="n">
-        <v>1543.554090058106</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q42" t="n">
-        <v>1675.141576563143</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R42" t="n">
         <v>1677.151305564151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>898.5806392247717</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="C43" t="n">
-        <v>726.0189277079967</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1409349095194</v>
+        <v>560.3360567891434</v>
       </c>
       <c r="E43" t="n">
-        <v>390.3829311602566</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F43" t="n">
-        <v>213.6758771220128</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G43" t="n">
-        <v>48.96638213099689</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H43" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J43" t="n">
         <v>196.6473093931425</v>
       </c>
       <c r="K43" t="n">
-        <v>571.8138742903013</v>
+        <v>297.055419719166</v>
       </c>
       <c r="L43" t="n">
-        <v>1118.511567973113</v>
+        <v>425.5432316340163</v>
       </c>
       <c r="M43" t="n">
-        <v>1253.983950316745</v>
+        <v>1020.499481158562</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.235102203909</v>
+        <v>1595.00943620337</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719484</v>
+        <v>2136.834029666164</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.89120767241</v>
+        <v>2241.359029648747</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S43" t="n">
-        <v>2448.319106549844</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T43" t="n">
-        <v>2206.207265510877</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.822361853973</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V43" t="n">
-        <v>1640.866853724403</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W43" t="n">
-        <v>1368.840449310695</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X43" t="n">
-        <v>1123.448694644107</v>
+        <v>979.5743461940224</v>
       </c>
       <c r="Y43" t="n">
-        <v>898.5806392247717</v>
+        <v>752.1546755081306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1635.177528260531</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="C44" t="n">
-        <v>1197.035055443955</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="D44" t="n">
-        <v>1145.264004567138</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="E44" t="n">
-        <v>1145.264004567138</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="F44" t="n">
-        <v>717.3965749763458</v>
+        <v>448.3984362953971</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H44" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I44" t="n">
-        <v>122.8353788882625</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J44" t="n">
         <v>286.3580891786135</v>
       </c>
       <c r="K44" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141192</v>
       </c>
       <c r="L44" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M44" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N44" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O44" t="n">
-        <v>1842.180380803854</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P44" t="n">
-        <v>2119.236244874198</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2327.293660516456</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R44" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S44" t="n">
-        <v>2448.319106549844</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2448.319106549844</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U44" t="n">
-        <v>2448.319106549844</v>
+        <v>2062.880733962019</v>
       </c>
       <c r="V44" t="n">
-        <v>2448.319106549844</v>
+        <v>1700.263783895846</v>
       </c>
       <c r="W44" t="n">
-        <v>2043.463651960878</v>
+        <v>1295.408329306879</v>
       </c>
       <c r="X44" t="n">
-        <v>2043.463651960878</v>
+        <v>876.2658658861894</v>
       </c>
       <c r="Y44" t="n">
-        <v>1635.177528260531</v>
+        <v>876.2658658861894</v>
       </c>
     </row>
     <row r="45">
@@ -7706,49 +7706,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C45" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D45" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E45" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F45" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G45" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H45" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I45" t="n">
-        <v>84.45847150237337</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J45" t="n">
-        <v>181.8514775085926</v>
+        <v>119.8578922240945</v>
       </c>
       <c r="K45" t="n">
-        <v>348.3116373029834</v>
+        <v>286.3180520184854</v>
       </c>
       <c r="L45" t="n">
-        <v>572.1378646061672</v>
+        <v>510.1442793216694</v>
       </c>
       <c r="M45" t="n">
-        <v>833.3325146678766</v>
+        <v>771.3389293833791</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.440209907782</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.706371962439</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P45" t="n">
-        <v>1543.554090058106</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q45" t="n">
-        <v>1675.141576563143</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R45" t="n">
         <v>1677.151305564151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.6021599058161</v>
+        <v>920.2236966265071</v>
       </c>
       <c r="C46" t="n">
-        <v>777.040448389041</v>
+        <v>920.2236966265071</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1624555905637</v>
+        <v>754.3457038280299</v>
       </c>
       <c r="E46" t="n">
-        <v>441.404451841301</v>
+        <v>584.5877000787672</v>
       </c>
       <c r="F46" t="n">
-        <v>264.6973978030571</v>
+        <v>407.8806460405234</v>
       </c>
       <c r="G46" t="n">
-        <v>99.98790281204117</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H46" t="n">
-        <v>48.96638213099689</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I46" t="n">
-        <v>48.96638213099689</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J46" t="n">
-        <v>110.0676242284526</v>
+        <v>196.6473093931425</v>
       </c>
       <c r="K46" t="n">
-        <v>210.4757345544759</v>
+        <v>571.8138742903014</v>
       </c>
       <c r="L46" t="n">
-        <v>542.2681845220118</v>
+        <v>1118.511567973113</v>
       </c>
       <c r="M46" t="n">
-        <v>1137.224434046557</v>
+        <v>1253.983950316745</v>
       </c>
       <c r="N46" t="n">
-        <v>1711.734389091365</v>
+        <v>1386.235102203909</v>
       </c>
       <c r="O46" t="n">
-        <v>2253.558982554158</v>
+        <v>1737.859313719486</v>
       </c>
       <c r="P46" t="n">
-        <v>2358.083982536742</v>
+        <v>2189.891207672411</v>
       </c>
       <c r="Q46" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R46" t="n">
-        <v>2448.319106549844</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S46" t="n">
-        <v>2448.319106549844</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T46" t="n">
-        <v>2206.207265510877</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.822361853973</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V46" t="n">
-        <v>1640.866853724403</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W46" t="n">
-        <v>1368.840449310695</v>
+        <v>1393.035121978986</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.840449310695</v>
+        <v>1147.643367312399</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.420778624803</v>
+        <v>920.2236966265071</v>
       </c>
     </row>
   </sheetData>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>264.6463123855401</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>175.7179764032066</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371568</v>
+        <v>357.542769720209</v>
       </c>
       <c r="N22" t="n">
-        <v>70.05088382580925</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>94.38684108920086</v>
+        <v>117.9039928161582</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9810,13 +9810,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>159.5948871726743</v>
+        <v>61.12035478205621</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,19 +10275,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>231.7867346248117</v>
+        <v>94.38684108920211</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>231.7867346248113</v>
+        <v>231.7867346248131</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10752,13 +10752,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>231.7867346248117</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>231.7867346248127</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>134.6036269024653</v>
+        <v>231.7867346248127</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>231.7867346248117</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>117.9039928161583</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>205.358220255238</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>231.7867346248129</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>136.9692629928758</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>60.57166976433049</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>38.1382701058853</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>6.180559718832228</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>121.4804709203933</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6033542052189</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.91154299085279</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.2641547914025</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>175.8370891351626</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>287.5636794512656</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100.5937471736738</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>134.8305269051664</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,16 +24028,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>151.6391547027496</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>38.13827010588523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415829</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T23" t="n">
-        <v>104.5534838521959</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>152.618479631806</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.332162398867</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>29.36413160458022</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>233.1542640048963</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V26" t="n">
-        <v>148.4119068588898</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>166.8017128995038</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>171.7997365701663</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>121.8130657015855</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>167.9357221203372</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>62.85073909637512</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.08230375220089</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.68563773032531</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,16 +24925,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>44.50931191473978</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>171.7997365701685</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>17.48654814782464</v>
       </c>
       <c r="H34" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>32.79156639492254</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H35" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>219.8342132383806</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.20731877519529</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4377336227562</v>
+        <v>198.9207573161957</v>
       </c>
       <c r="H38" t="n">
         <v>266.3081572941393</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.3474170061614</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>129.1784437837156</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>57.40763996341488</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>158.9490439299805</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>414.8583865829351</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>86.08200015058929</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>130.5485544939588</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.7417251547865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453887</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.526099113890439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>380.2973466092515</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.46815833415829</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>122.705976579307</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>80.2304196805527</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453887</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>166.3883309071927</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>336877.9888809597</v>
+        <v>336877.9888809596</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>336877.9888809595</v>
+        <v>336877.9888809596</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>336877.9888809597</v>
+        <v>336877.9888809596</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>346801.8741220968</v>
+        <v>346801.8741220971</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>346801.8741220969</v>
+        <v>346801.874122097</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>346801.8741220968</v>
+        <v>346801.874122097</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>346801.8741220968</v>
+        <v>346801.874122097</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>346801.8741220969</v>
+        <v>346801.874122097</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346801.8741220968</v>
+        <v>346801.874122097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346801.8741220968</v>
+        <v>346801.874122097</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>392538.4746673437</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
         <v>235946.356951226</v>
@@ -26328,34 +26328,34 @@
         <v>235946.3569512259</v>
       </c>
       <c r="G2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="H2" t="n">
         <v>235946.3569512259</v>
       </c>
       <c r="I2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="J2" t="n">
-        <v>242775.0810731973</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="K2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="L2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="M2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="N2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
       <c r="O2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731976</v>
       </c>
       <c r="P2" t="n">
-        <v>242775.0810731974</v>
+        <v>242775.0810731975</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935632</v>
+        <v>18943.98047935686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>10456.45543630175</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831155</v>
+        <v>136754.9043831154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294841.7084545743</v>
       </c>
       <c r="E4" t="n">
-        <v>22750.61565481864</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="F4" t="n">
         <v>22750.61565481863</v>
       </c>
       <c r="G4" t="n">
-        <v>22750.61565481864</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="H4" t="n">
         <v>22750.61565481863</v>
       </c>
       <c r="I4" t="n">
-        <v>23582.99024117212</v>
+        <v>23582.99024117214</v>
       </c>
       <c r="J4" t="n">
+        <v>23582.99024117215</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23582.99024117214</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23582.99024117214</v>
+      </c>
+      <c r="M4" t="n">
         <v>23582.99024117213</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23582.99024117212</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23582.99024117211</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23582.99024117212</v>
       </c>
       <c r="N4" t="n">
         <v>23582.99024117213</v>
       </c>
       <c r="O4" t="n">
-        <v>23582.99024117212</v>
+        <v>23582.99024117215</v>
       </c>
       <c r="P4" t="n">
-        <v>23582.99024117213</v>
+        <v>23582.99024117214</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="J5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="K5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="L5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="M5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="N5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="O5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
       <c r="P5" t="n">
-        <v>47767.76961397014</v>
+        <v>47767.76961397017</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="C6" t="n">
-        <v>60180.15835551085</v>
+        <v>60148.25163800929</v>
       </c>
       <c r="D6" t="n">
-        <v>29531.31710826619</v>
+        <v>29531.31710826614</v>
       </c>
       <c r="E6" t="n">
-        <v>-345340.8494692122</v>
+        <v>-345894.7299124341</v>
       </c>
       <c r="F6" t="n">
-        <v>167144.6600867695</v>
+        <v>166590.7796435475</v>
       </c>
       <c r="G6" t="n">
-        <v>167144.6600867695</v>
+        <v>166590.7796435475</v>
       </c>
       <c r="H6" t="n">
-        <v>167144.6600867695</v>
+        <v>166590.7796435475</v>
       </c>
       <c r="I6" t="n">
-        <v>152480.3407386988</v>
+        <v>151949.2227092164</v>
       </c>
       <c r="J6" t="n">
-        <v>171424.321218055</v>
+        <v>170893.2031885732</v>
       </c>
       <c r="K6" t="n">
-        <v>171424.3212180551</v>
+        <v>170893.2031885732</v>
       </c>
       <c r="L6" t="n">
-        <v>160967.8657817534</v>
+        <v>160436.7477522715</v>
       </c>
       <c r="M6" t="n">
-        <v>34669.41683493971</v>
+        <v>34138.29880545782</v>
       </c>
       <c r="N6" t="n">
-        <v>171424.3212180551</v>
+        <v>170893.2031885732</v>
       </c>
       <c r="O6" t="n">
-        <v>171424.3212180551</v>
+        <v>170893.2031885732</v>
       </c>
       <c r="P6" t="n">
-        <v>171424.3212180552</v>
+        <v>170893.2031885732</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528676</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="P3" t="n">
-        <v>484.0972107528672</v>
+        <v>484.0972107528676</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="J4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="K4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="L4" t="n">
-        <v>612.079776637461</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="N4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374616</v>
       </c>
       <c r="P4" t="n">
-        <v>612.0797766374611</v>
+        <v>612.0797766374616</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.39528265964606</v>
+        <v>17.39528265964657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.99788227552699</v>
+        <v>21.99788227552756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27937,7 +27937,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27946,7 +27946,7 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>53.88005518648017</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
         <v>40.6378963153706</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>152.8887931427232</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28016,13 +28016,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>151.9877474693106</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>136.1002613421533</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
@@ -32083,7 +32083,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108054</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,34 +32545,34 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -32581,10 +32581,10 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R23" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384307</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530354</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H24" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365579</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776818</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.29686991973813</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>64.6498124095999</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S24" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106635</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K25" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P25" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368295</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T25" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U25" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R26" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H27" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365579</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776818</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293947337</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S27" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K28" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N28" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O28" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P28" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S28" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T28" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U28" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S29" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H30" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>71.60758595262575</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8360788845126</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R30" t="n">
-        <v>64.6498124095999</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S30" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T30" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K31" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P31" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S31" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T31" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U31" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H32" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R32" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S32" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H33" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.60758595262537</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498897</v>
+        <v>141.3723877588579</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R33" t="n">
-        <v>64.6498124095999</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S33" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T33" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J34" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K34" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M34" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O34" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P34" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R34" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S34" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T34" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U34" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H35" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R35" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S35" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H36" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365579</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776818</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P36" t="n">
-        <v>136.2162957688597</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R36" t="n">
-        <v>64.6498124095999</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S36" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T36" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J37" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K37" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M37" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P37" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R37" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S37" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T37" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U37" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H38" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S38" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H39" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>35.75699062800265</v>
+        <v>35.7569906280012</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R39" t="n">
-        <v>64.6498124095999</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S39" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T39" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J40" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K40" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M40" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N40" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R40" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S40" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T40" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U40" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R41" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S41" t="n">
-        <v>44.34719674384307</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530354</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H42" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365579</v>
+        <v>35.7569906280012</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R42" t="n">
-        <v>2.030029293947109</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S42" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T42" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J43" t="n">
-        <v>61.71842636106635</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K43" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
         <v>129.7856686008589</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O43" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P43" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368295</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S43" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T43" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U43" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.94611944021253</v>
+        <v>1.946119440212531</v>
       </c>
       <c r="H44" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I44" t="n">
-        <v>75.02776971879364</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L44" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157225</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P44" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.159005699251</v>
+        <v>210.1590056992511</v>
       </c>
       <c r="R44" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862505</v>
       </c>
       <c r="S44" t="n">
-        <v>44.34719674384307</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T44" t="n">
-        <v>8.519137849530354</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H45" t="n">
-        <v>10.05643451016805</v>
+        <v>10.05643451016806</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462272</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365579</v>
+        <v>35.75699062800106</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860443</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776818</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845126</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.916653035391</v>
+        <v>132.9166530353911</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293947109</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S45" t="n">
-        <v>19.34105365602256</v>
+        <v>19.34105365602257</v>
       </c>
       <c r="T45" t="n">
-        <v>4.197031478130988</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06850432227634916</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8729621833248423</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H46" t="n">
-        <v>7.761427411742694</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I46" t="n">
-        <v>26.25235365853254</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106635</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K46" t="n">
-        <v>101.4223336626498</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M46" t="n">
-        <v>136.8407902460932</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O46" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632154</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.09867882368295</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R46" t="n">
-        <v>39.25155417022427</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S46" t="n">
-        <v>15.21335004939747</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T46" t="n">
-        <v>3.729929328751598</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U46" t="n">
-        <v>0.047616119090446</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35187,16 +35187,16 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
         <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,25 +35646,25 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
@@ -35731,7 +35731,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>383.6017480903499</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
@@ -35895,10 +35895,10 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>304.5047560030951</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36281,28 +36281,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>489.4663983449861</v>
       </c>
       <c r="N22" t="n">
-        <v>198.8376634256977</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518626</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R23" t="n">
         <v>122.2479252862504</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462271</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365578</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776817</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350072</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P24" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.29686991973813</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R24" t="n">
         <v>64.64981240959992</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>224.1725096900597</v>
+        <v>247.6896614170171</v>
       </c>
       <c r="M25" t="n">
-        <v>600.9659086106519</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N25" t="n">
         <v>580.313085903847</v>
       </c>
       <c r="O25" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
         <v>247.5536907429348</v>
       </c>
       <c r="L26" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562186</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N26" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P26" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862504</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J27" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L27" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603124</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776817</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293947337</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>552.2198926089004</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M28" t="n">
-        <v>296.4356774187676</v>
+        <v>197.9611450281495</v>
       </c>
       <c r="N28" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O28" t="n">
-        <v>547.2975691543365</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P28" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429348</v>
       </c>
       <c r="L29" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562186</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N29" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321095</v>
       </c>
       <c r="P29" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R29" t="n">
         <v>122.2479252862504</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J30" t="n">
-        <v>71.60758595262575</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L30" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M30" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776817</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P30" t="n">
-        <v>198.8360788845125</v>
+        <v>136.2162957688581</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959969</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K31" t="n">
         <v>378.9561261587464</v>
       </c>
       <c r="L31" t="n">
-        <v>552.2198926089005</v>
+        <v>129.7856686008589</v>
       </c>
       <c r="M31" t="n">
-        <v>136.8407902460933</v>
+        <v>600.965908610652</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O31" t="n">
-        <v>355.175971227854</v>
+        <v>217.7760776922446</v>
       </c>
       <c r="P31" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R31" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L32" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N32" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R32" t="n">
         <v>122.2479252862504</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>71.60758595262537</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498897</v>
+        <v>141.3723877588579</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776818</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959992</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K34" t="n">
         <v>378.9561261587464</v>
       </c>
       <c r="L34" t="n">
-        <v>552.2198926089005</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
         <v>136.8407902460933</v>
       </c>
       <c r="N34" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O34" t="n">
-        <v>355.1759712278536</v>
+        <v>355.1759712278556</v>
       </c>
       <c r="P34" t="n">
         <v>456.5978726797223</v>
@@ -37250,7 +37250,7 @@
         <v>242.9903706058367</v>
       </c>
       <c r="R34" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L35" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N35" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R35" t="n">
         <v>122.2479252862504</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462271</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365578</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L36" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M36" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N36" t="n">
-        <v>270.8158537776817</v>
+        <v>208.1960706620273</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350072</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P36" t="n">
-        <v>136.2162957688597</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R36" t="n">
         <v>64.64981240959992</v>
@@ -37466,19 +37466,19 @@
         <v>149.172653800147</v>
       </c>
       <c r="K37" t="n">
-        <v>378.9561261587464</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L37" t="n">
-        <v>552.2198926089005</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M37" t="n">
-        <v>368.6275248709051</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O37" t="n">
-        <v>123.3892366030423</v>
+        <v>355.1759712278551</v>
       </c>
       <c r="P37" t="n">
         <v>456.5978726797223</v>
@@ -37487,7 +37487,7 @@
         <v>242.9903706058367</v>
       </c>
       <c r="R37" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429346</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L38" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N38" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O38" t="n">
         <v>327.8992318321093</v>
@@ -37563,7 +37563,7 @@
         <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R38" t="n">
         <v>122.2479252862504</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462271</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>35.75699062800265</v>
+        <v>35.7569906280012</v>
       </c>
       <c r="K39" t="n">
-        <v>168.1415755498897</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776818</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350074</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
         <v>64.64981240959992</v>
@@ -37703,28 +37703,28 @@
         <v>149.172653800147</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587464</v>
+        <v>378.9561261587465</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7856686008589</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M40" t="n">
-        <v>271.4444171485585</v>
+        <v>368.627524870906</v>
       </c>
       <c r="N40" t="n">
-        <v>580.3130859038469</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O40" t="n">
-        <v>547.2975691543365</v>
+        <v>123.3892366030425</v>
       </c>
       <c r="P40" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q40" t="n">
         <v>242.9903706058367</v>
       </c>
       <c r="R40" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613391</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M41" t="n">
-        <v>341.7215451562186</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N41" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
         <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862504</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462271</v>
+        <v>35.85059532462273</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365578</v>
+        <v>35.7569906280012</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N42" t="n">
-        <v>270.8158537776817</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350072</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R42" t="n">
-        <v>2.030029293947109</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.172653800147</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>552.2198926089005</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O43" t="n">
-        <v>355.175971227854</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>191.0026716398411</v>
       </c>
       <c r="R43" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>74.61514823966223</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J44" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387387</v>
       </c>
       <c r="K44" t="n">
-        <v>247.5536907429348</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L44" t="n">
-        <v>307.112243561339</v>
+        <v>307.1122435613395</v>
       </c>
       <c r="M44" t="n">
-        <v>341.7215451562186</v>
+        <v>341.721545156219</v>
       </c>
       <c r="N44" t="n">
-        <v>347.2509570157224</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O44" t="n">
-        <v>327.8992318321091</v>
+        <v>327.8992318321093</v>
       </c>
       <c r="P44" t="n">
         <v>279.8544081518623</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.85059532462271</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>98.37677374365578</v>
+        <v>35.75699062800106</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
-        <v>226.0870982860442</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M45" t="n">
-        <v>263.8329798603125</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N45" t="n">
-        <v>270.8158537776817</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350072</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R45" t="n">
-        <v>2.030029293947109</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.71842636106636</v>
+        <v>149.1726538001471</v>
       </c>
       <c r="K46" t="n">
-        <v>101.4223336626498</v>
+        <v>378.9561261587464</v>
       </c>
       <c r="L46" t="n">
-        <v>335.1438888560969</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M46" t="n">
-        <v>600.9659086106518</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>580.3130859038467</v>
+        <v>133.5870221082464</v>
       </c>
       <c r="O46" t="n">
-        <v>547.2975691543365</v>
+        <v>355.1759712278554</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797225</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.0986788236828</v>
+        <v>242.9903706058367</v>
       </c>
       <c r="R46" t="n">
-        <v>18.04791108854243</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
